--- a/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
+++ b/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
@@ -734,7 +734,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
+++ b/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
@@ -734,7 +734,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
+++ b/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
@@ -734,7 +734,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="15" t="n">
-        <v>108.7</v>
+        <v>213.15</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="1">
@@ -830,7 +830,7 @@
       </c>
       <c r="C30" s="27" t="n"/>
       <c r="D30" s="15" t="n">
-        <v>108.7</v>
+        <v>213.15</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="1">
@@ -846,7 +846,7 @@
       </c>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="15" t="n">
-        <v>108.7</v>
+        <v>213.15</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="1">
@@ -862,7 +862,7 @@
       </c>
       <c r="C32" s="27" t="n"/>
       <c r="D32" s="15" t="n">
-        <v>108.7</v>
+        <v>213.15</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="1">
@@ -878,7 +878,7 @@
       </c>
       <c r="C33" s="27" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>140</v>
+        <v>229.1</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1" s="1">
@@ -894,7 +894,7 @@
       </c>
       <c r="C34" s="27" t="n"/>
       <c r="D34" s="15" t="n">
-        <v>112.95</v>
+        <v>229.1</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="1">
@@ -910,7 +910,7 @@
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="15" t="n">
-        <v>112.95</v>
+        <v>229.1</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="1">
@@ -926,7 +926,7 @@
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="15" t="n">
-        <v>112.95</v>
+        <v>229.1</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1" s="1">
@@ -942,7 +942,7 @@
       </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="15" t="n">
-        <v>124.4</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1" s="1">
@@ -958,7 +958,7 @@
       </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="15" t="n">
-        <v>124.4</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -989,22 +989,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
+++ b/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
@@ -734,7 +734,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>

--- a/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
+++ b/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
@@ -734,7 +734,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -989,22 +989,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
+++ b/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
@@ -734,7 +734,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -989,22 +989,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A40:D40"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
+++ b/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
@@ -734,7 +734,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -989,22 +989,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
+++ b/server/LISTAS/ma/SOPORTE para CORTINA LIDIMA.xlsx
@@ -734,7 +734,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="6" t="n"/>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="15" t="n">
-        <v>108.7</v>
+        <v>234.465</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="1">
@@ -830,7 +830,7 @@
       </c>
       <c r="C30" s="27" t="n"/>
       <c r="D30" s="15" t="n">
-        <v>108.7</v>
+        <v>234.465</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1" s="1">
@@ -846,7 +846,7 @@
       </c>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="15" t="n">
-        <v>108.7</v>
+        <v>234.465</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1" s="1">
@@ -862,7 +862,7 @@
       </c>
       <c r="C32" s="27" t="n"/>
       <c r="D32" s="15" t="n">
-        <v>108.7</v>
+        <v>234.465</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="1">
@@ -878,7 +878,7 @@
       </c>
       <c r="C33" s="27" t="n"/>
       <c r="D33" s="15" t="n">
-        <v>140</v>
+        <v>252.01</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1" s="1">
@@ -894,7 +894,7 @@
       </c>
       <c r="C34" s="27" t="n"/>
       <c r="D34" s="15" t="n">
-        <v>112.95</v>
+        <v>252.01</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="1">
@@ -910,7 +910,7 @@
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="15" t="n">
-        <v>112.95</v>
+        <v>252.01</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="1">
@@ -926,7 +926,7 @@
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="15" t="n">
-        <v>112.95</v>
+        <v>252.01</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1" s="1">
@@ -942,7 +942,7 @@
       </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="15" t="n">
-        <v>124.4</v>
+        <v>289.3</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1" s="1">
@@ -958,7 +958,7 @@
       </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="15" t="n">
-        <v>124.4</v>
+        <v>289.3</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="1">
@@ -989,22 +989,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A40:D40"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
